--- a/Final Rule - CA 111 - Limits.xlsx
+++ b/Final Rule - CA 111 - Limits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turbinelogic-my.sharepoint.com/personal/cperullo_turbinelogic_com/Documents/Consulting/EPRI/Cycle Deck/Mike C CO2 EPA Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{3CCCF876-B4C6-40FF-808A-11450F747C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5656E45B-1260-40D0-A6BA-F5035FE22C82}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{3CCCF876-B4C6-40FF-808A-11450F747C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0D8F82B-E7CB-40EE-BF29-632C908D5E39}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{5CBA24C5-69DE-4591-B9E0-FD6AE5A98EAD}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="43200" windowHeight="17115" xr2:uid="{5CBA24C5-69DE-4591-B9E0-FD6AE5A98EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,12 +404,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -425,18 +419,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
@@ -1524,7 +1524,7 @@
   <dimension ref="F1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1535,117 +1535,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="6:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="6:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="18">
         <v>300</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>2</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>7800</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="6:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="21">
         <f>G6*G4*1000/1000000/G5</f>
         <v>1170</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <v>120</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="6:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="24">
-        <f>IF(G3&lt;20%,160,IF(G3&lt;40%,G22*G23/G24,MAX(G13+(G14-G13)/(G15-G16)*(G15-G17),800)*(G18/G19)))</f>
+      <c r="G9" s="22">
+        <f>IF(G3&lt;20%,160,IF(G3&lt;40%,G22*G23/G24,MIN(900,MAX(G13+(G14-G13)/(G15-G16)*(G15-G17),800)*(G18/G19))))</f>
         <v>847.42857142857144</v>
       </c>
-      <c r="H9" s="13" t="str">
+      <c r="H9" s="11" t="str">
         <f>IF(G3&lt;20%,"lbm CO2 / MMBTU -- fuel based standard","lbm CO2/MWh")</f>
         <v>lbm CO2/MWh</v>
       </c>
     </row>
     <row r="10" spans="6:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <f>IF(G3&lt;20%,"Fuel Based Standard - see above row",G9/392*G8/115*3412)</f>
         <v>7696.7869184941055</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="6:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="6:8" ht="15" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>800</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1656,7 +1656,7 @@
       <c r="F14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="15">
         <v>900</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -1667,7 +1667,7 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <v>2000</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -1678,7 +1678,7 @@
       <c r="F16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="15">
         <v>250</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1689,7 +1689,7 @@
       <c r="F17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="15">
         <f>G7</f>
         <v>1170</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="F18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="15">
         <f>G8</f>
         <v>120</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="16">
         <v>120</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -1726,17 +1726,17 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="6:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="6:8" ht="15" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="14">
         <v>1170</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1747,7 +1747,7 @@
       <c r="F23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="15">
         <f>G8</f>
         <v>120</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="F24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="16">
         <v>120</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -1767,7 +1767,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h4B7jP2khRNCGP1qWbZjfiy9cOsLxuu9WW51cwfIf1aPR/FaIkUK2Ul9IyEPiFM7p424jUex+IjHMSQj3UQ1Xw==" saltValue="c++Y5xiyqBLTLGZa/UCfVw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F21:H21"/>
